--- a/xls/formationConfig.xlsx
+++ b/xls/formationConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9540" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="@阵容配置表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>teamTuple[.][funcTupleInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,11 +37,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵容位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,13,15,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-2平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,8,10,12,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-2双后腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,12,16,19,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-2菱形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,15,18,20,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,12,13,14,15,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5-2平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,8,10,12,14,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5-2双后腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,9,11,13,15,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5-2翼卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,13,14,15,18,20,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4-1平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,12,13,15,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,9,12,14,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,11,13,15,17,21,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,11,14,17,19,21,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-3-1翼卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,13,14,15,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5-1平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,8,10,12,14,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,14,15,18,20,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,15,18,19,20,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-3-1收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,14,15,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3-3平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,13,15,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,12,13,15,16,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4-3平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,9,13,14,15,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-3-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +219,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,82 +248,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -177,14 +270,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -219,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,46 +556,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="1" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>35201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>35202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>35203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>35204</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>54101</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>54102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>54103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>54104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43301</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43303</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +830,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/xls/formationConfig.xlsx
+++ b/xls/formationConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="9540" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="@阵容配置表" sheetId="1" r:id="rId1"/>
@@ -15,189 +15,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+  <si>
+    <t>阵容名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容配置表:FormationConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,13,15,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-2平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,8,10,12,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-2双后腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,12,16,19,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4-2菱形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,15,18,20,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,12,13,14,15,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5-2平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,8,10,12,14,16,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5-2双后腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,9,11,13,15,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5-2翼卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,13,14,15,18,20,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4-1平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,12,13,15,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,9,12,14,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,11,13,15,17,21,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,11,14,17,19,21,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1-3-1翼卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,13,14,15,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5-1平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,8,10,12,14,16,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,14,15,18,20,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,15,18,19,20,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-3-1收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,13,14,15,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3-3平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,13,15,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,12,13,15,16,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4-3平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,9,13,14,15,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阵容名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>teamTuple[.][funcTupleInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阵容配置表:FormationConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,12,13,15,16,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4-2平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,8,10,12,16,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4-2双后腰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,9,12,16,19,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4-2菱形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,13,15,18,20,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2-2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,12,13,14,15,16,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5-2平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,8,10,12,14,16,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5-2双后腰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,7,9,11,13,15,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5-2翼卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,13,14,15,18,20,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3-2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-4-1平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,12,13,15,16,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,9,12,14,16,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,7,11,13,15,17,21,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,7,11,14,17,19,21,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1-3-1翼卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,12,13,14,15,16,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5-1平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,8,10,12,14,16,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,13,14,15,18,20,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,13,15,18,19,20,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2-3-1收缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,13,14,15,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3-3平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,9,13,15,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1-2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,12,13,15,16,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4-3平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,9,13,14,15,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1-3-3</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型系统类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockLevel[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型系列等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,15 +342,21 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,14 +364,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,256 +698,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="26.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44201</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44202</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44203</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44204</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>35201</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>35202</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>35203</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>35204</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>54101</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>54102</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>54103</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>54104</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E15" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45101</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45102</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45103</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="E18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>45104</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43301</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43302</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43303</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43304</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
+      <c r="E22" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +1106,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
